--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>544837.0101761244</v>
+        <v>538400.4856005376</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10796751.4400758</v>
+        <v>10796161.46068539</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>187.2311881380705</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>133.5562934037085</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968106</v>
+        <v>50.6435372072226</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>115.6661862967994</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>53.03638470914574</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>240.3636029493332</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>375.4946517949264</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968106</v>
+        <v>50.6435372072226</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>38.42526832431106</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6099282383558</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0888727010531</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>230.9278863568888</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6315408939116463</v>
+        <v>22.96189723698673</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>75.79955572800336</v>
       </c>
       <c r="C11" t="n">
-        <v>34.50082464550951</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
@@ -1382,13 +1382,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362799</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214455</v>
@@ -1427,7 +1427,7 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1528,10 +1528,10 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>142.8218378457822</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1591,10 +1591,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>27.29296406584672</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.64718169059</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362794</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>54.92939324850828</v>
+        <v>2.695166096341244</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215417</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.9984695717784</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465751</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442478</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681691</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338896</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456089</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901681</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845441</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>183.9407547244855</v>
       </c>
       <c r="W16" t="n">
-        <v>33.51902637615435</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1904,10 +1904,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277472</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799663</v>
       </c>
       <c r="C29" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077821</v>
       </c>
       <c r="D29" t="n">
-        <v>287.5954430211825</v>
+        <v>287.5954430211823</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603043</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110054</v>
       </c>
       <c r="G29" t="n">
-        <v>315.0398534825604</v>
+        <v>315.0398534825603</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>226.8509454548577</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414322</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404334</v>
       </c>
       <c r="T29" t="n">
-        <v>127.274321941861</v>
+        <v>127.2743219418609</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954309</v>
+        <v>159.2039277954308</v>
       </c>
       <c r="V29" t="n">
-        <v>244.6944667292003</v>
+        <v>244.6944667292002</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070788</v>
       </c>
       <c r="X29" t="n">
-        <v>291.5668045419573</v>
+        <v>291.5668045419571</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142883</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007167</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035407</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.0855074921938</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507291</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484018</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723231</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538074</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497629</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.6707049994322</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049595</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391316</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662015</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530674</v>
       </c>
       <c r="W31" t="n">
-        <v>186.5058235738177</v>
+        <v>186.5058235738176</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205301</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.8896660972066</v>
+        <v>126.8896660972065</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815726</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093884</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227886</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619106</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126117</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841666</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564639</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838888</v>
+        <v>24.17382596574954</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828901</v>
+        <v>52.06849973564967</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434672</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970371</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308065</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086851</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435634</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158946</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431733</v>
+        <v>70.57601873167799</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459974</v>
+        <v>55.7231469819604</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643946</v>
+        <v>41.29686219380012</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931857</v>
+        <v>41.22330424667923</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908584</v>
+        <v>42.9727556664465</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147798</v>
+        <v>53.79159358883864</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805002</v>
+        <v>41.14384575541068</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922195</v>
+        <v>18.98356133658261</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367787</v>
+        <v>9.882059701038528</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920519</v>
+        <v>88.00800320656585</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407379</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678078</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546737</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754239</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221364</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988128</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
@@ -3958,13 +3958,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="44">
@@ -4028,7 +4028,7 @@
         <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059288</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2174.782969737748</v>
+        <v>913.6543995742775</v>
       </c>
       <c r="C2" t="n">
-        <v>1985.660557477071</v>
+        <v>913.6543995742775</v>
       </c>
       <c r="D2" t="n">
-        <v>1600.219428693739</v>
+        <v>913.6543995742775</v>
       </c>
       <c r="E2" t="n">
-        <v>1197.635903810283</v>
+        <v>913.6543995742775</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402611</v>
+        <v>778.7490527018447</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>588.4870060424333</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059666</v>
+        <v>588.4870060424333</v>
       </c>
       <c r="N2" t="n">
-        <v>1578.706865059666</v>
+        <v>1102.089684652121</v>
       </c>
       <c r="O2" t="n">
-        <v>2018.746465951995</v>
+        <v>1542.129285544449</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737748</v>
+        <v>1890.316777675971</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737748</v>
+        <v>1908.64878275797</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737748</v>
+        <v>1685.148180317387</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737748</v>
+        <v>1685.148180317387</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737748</v>
+        <v>1685.148180317387</v>
       </c>
       <c r="W2" t="n">
-        <v>2174.782969737748</v>
+        <v>1314.149145285674</v>
       </c>
       <c r="X2" t="n">
-        <v>2174.782969737748</v>
+        <v>1314.149145285674</v>
       </c>
       <c r="Y2" t="n">
-        <v>2174.782969737748</v>
+        <v>1314.149145285674</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.8905007444268</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569814</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552947</v>
+        <v>128.7329332714596</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.276226875479</v>
+        <v>642.3356118811472</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875479</v>
+        <v>1155.938290490835</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.79650946646</v>
+        <v>1669.540969100522</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373307</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S4" t="n">
-        <v>618.2256087514338</v>
+        <v>740.13418548044</v>
       </c>
       <c r="T4" t="n">
-        <v>382.5065569196679</v>
+        <v>623.2996538675113</v>
       </c>
       <c r="U4" t="n">
-        <v>97.06776516156884</v>
+        <v>337.8608621094122</v>
       </c>
       <c r="V4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="W4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="X4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023644</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1197.635903810283</v>
+        <v>678.858245141903</v>
       </c>
       <c r="C5" t="n">
-        <v>1197.635903810283</v>
+        <v>678.858245141903</v>
       </c>
       <c r="D5" t="n">
-        <v>1197.635903810283</v>
+        <v>293.4171163585708</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.635903810283</v>
+        <v>293.4171163585708</v>
       </c>
       <c r="F5" t="n">
-        <v>780.7414653402611</v>
+        <v>50.62559822793116</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K5" t="n">
-        <v>320.4858080663433</v>
+        <v>280.012274464853</v>
       </c>
       <c r="L5" t="n">
-        <v>320.4858080663433</v>
+        <v>773.3325661833818</v>
       </c>
       <c r="M5" t="n">
-        <v>858.744593076436</v>
+        <v>1286.935244793069</v>
       </c>
       <c r="N5" t="n">
-        <v>1386.555876713898</v>
+        <v>1286.935244793069</v>
       </c>
       <c r="O5" t="n">
-        <v>1826.595477606226</v>
+        <v>1726.974845685398</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="U5" t="n">
-        <v>1919.030240172347</v>
+        <v>1781.41669453704</v>
       </c>
       <c r="V5" t="n">
-        <v>1576.923430875866</v>
+        <v>1439.309885240559</v>
       </c>
       <c r="W5" t="n">
-        <v>1576.923430875866</v>
+        <v>1068.310850208846</v>
       </c>
       <c r="X5" t="n">
-        <v>1197.635903810283</v>
+        <v>678.858245141903</v>
       </c>
       <c r="Y5" t="n">
-        <v>1197.635903810283</v>
+        <v>678.858245141903</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>90.8905007444268</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475497</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569814</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L6" t="n">
-        <v>846.8008913552947</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="M6" t="n">
-        <v>846.8008913552947</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875479</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.79650946646</v>
+        <v>1435.175877545632</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262029</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373307</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.974210433261</v>
+        <v>354.3077325818715</v>
       </c>
       <c r="C7" t="n">
-        <v>198.974210433261</v>
+        <v>354.3077325818715</v>
       </c>
       <c r="D7" t="n">
-        <v>198.974210433261</v>
+        <v>354.3077325818715</v>
       </c>
       <c r="E7" t="n">
-        <v>198.974210433261</v>
+        <v>354.3077325818715</v>
       </c>
       <c r="F7" t="n">
-        <v>198.974210433261</v>
+        <v>196.9817977948444</v>
       </c>
       <c r="G7" t="n">
-        <v>198.974210433261</v>
+        <v>196.9817977948444</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>616.2331961130171</v>
       </c>
       <c r="T7" t="n">
-        <v>821.0416925688844</v>
+        <v>616.2331961130171</v>
       </c>
       <c r="U7" t="n">
-        <v>821.0416925688844</v>
+        <v>616.2331961130171</v>
       </c>
       <c r="V7" t="n">
-        <v>821.0416925688844</v>
+        <v>577.4197937652282</v>
       </c>
       <c r="W7" t="n">
-        <v>821.0416925688844</v>
+        <v>577.4197937652282</v>
       </c>
       <c r="X7" t="n">
-        <v>607.2942903079189</v>
+        <v>577.4197937652282</v>
       </c>
       <c r="Y7" t="n">
-        <v>384.1822291245622</v>
+        <v>354.3077325818715</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1170.151689752058</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="C8" t="n">
-        <v>1170.151689752058</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="D8" t="n">
-        <v>1170.151689752058</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="E8" t="n">
-        <v>1170.151689752058</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>753.2572512820358</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
         <v>509.7331374425881</v>
@@ -4805,7 +4805,7 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L8" t="n">
         <v>851.7967205028091</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U8" t="n">
-        <v>1937.641433863169</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V8" t="n">
-        <v>1937.641433863169</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="W8" t="n">
-        <v>1566.642398831457</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="X8" t="n">
-        <v>1566.642398831457</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="Y8" t="n">
-        <v>1170.151689752058</v>
+        <v>1742.373856308063</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>632.8109751081458</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>335.9662076052632</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C10" t="n">
-        <v>335.9662076052632</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D10" t="n">
-        <v>335.9662076052632</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>622.0429194582225</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>336.6041277001235</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V10" t="n">
-        <v>335.9662076052632</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="W10" t="n">
-        <v>335.9662076052632</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="X10" t="n">
-        <v>335.9662076052632</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="Y10" t="n">
-        <v>335.9662076052632</v>
+        <v>77.69124027544166</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1405.326329274748</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="C11" t="n">
-        <v>1370.477011451</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="D11" t="n">
-        <v>1056.832157813862</v>
+        <v>1398.198638179666</v>
       </c>
       <c r="E11" t="n">
-        <v>726.0449080766006</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>380.9467447527722</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527722</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5075,16 +5075,16 @@
         <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2675.578323579424</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2376.375563693905</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X11" t="n">
-        <v>2058.719233773156</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>1734.024799839951</v>
+        <v>1788.408699622868</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M12" t="n">
-        <v>1458.313011372373</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>303.7118946264957</v>
+        <v>389.3452345522642</v>
       </c>
       <c r="C13" t="n">
-        <v>303.7118946264957</v>
+        <v>290.9363917644473</v>
       </c>
       <c r="D13" t="n">
-        <v>219.8750566752043</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="E13" t="n">
-        <v>219.8750566752043</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="F13" t="n">
-        <v>219.8750566752043</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208437</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5224,25 +5224,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593278</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1136.440668235199</v>
+        <v>936.0428256245445</v>
       </c>
       <c r="V13" t="n">
-        <v>942.2575982022172</v>
+        <v>741.8597555915626</v>
       </c>
       <c r="W13" t="n">
-        <v>730.7234712795888</v>
+        <v>530.325628668934</v>
       </c>
       <c r="X13" t="n">
-        <v>568.4394242087658</v>
+        <v>530.325628668934</v>
       </c>
       <c r="Y13" t="n">
-        <v>417.123638171603</v>
+        <v>502.7569780973716</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1714.395101119022</v>
+        <v>1966.681876406338</v>
       </c>
       <c r="C14" t="n">
-        <v>1393.015874768147</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D14" t="n">
-        <v>1079.371021131009</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E14" t="n">
-        <v>748.5837713937469</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F14" t="n">
-        <v>403.4856080699186</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411573</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2955.754869688467</v>
+        <v>3103.233995209472</v>
       </c>
       <c r="U14" t="n">
-        <v>2955.754869688467</v>
+        <v>2919.277540790265</v>
       </c>
       <c r="V14" t="n">
-        <v>2685.44433553818</v>
+        <v>2919.277540790265</v>
       </c>
       <c r="W14" t="n">
-        <v>2685.44433553818</v>
+        <v>2620.074780904746</v>
       </c>
       <c r="X14" t="n">
-        <v>2367.78800561743</v>
+        <v>2620.074780904746</v>
       </c>
       <c r="Y14" t="n">
-        <v>2043.093571684225</v>
+        <v>2295.380346971541</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>1493.196009291336</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>556.6863671542443</v>
+        <v>387.3941705188078</v>
       </c>
       <c r="C16" t="n">
-        <v>556.6863671542443</v>
+        <v>387.3941705188078</v>
       </c>
       <c r="D16" t="n">
-        <v>472.849529202953</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083495</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="F16" t="n">
         <v>303.5573325675164</v>
@@ -5428,7 +5428,7 @@
         <v>207.0995538131558</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208436</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,16 +5437,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138163</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245451</v>
+        <v>936.0428256245441</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915633</v>
+        <v>750.2440834785989</v>
       </c>
       <c r="W16" t="n">
-        <v>708.002153191407</v>
+        <v>538.7099565559705</v>
       </c>
       <c r="X16" t="n">
-        <v>708.002153191407</v>
+        <v>538.7099565559705</v>
       </c>
       <c r="Y16" t="n">
-        <v>556.6863671542443</v>
+        <v>387.3941705188078</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975448</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,22 +5543,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229987</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222417</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>442.71782091847</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>629.009399256734</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879432</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296512</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229981</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>278.5901810446702</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>442.71782091847</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M22" t="n">
-        <v>629.009399256734</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879432</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296512</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.77996610623</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5972,16 +5972,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,16 +6023,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P25" t="n">
-        <v>965.7235964838011</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218603</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390264</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142179</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,22 +6224,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471388004</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>606.9665031662622</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658946</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025981</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6312,7 +6312,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985353</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517129</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D28" t="n">
-        <v>368.373229741416</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878069</v>
+        <v>307.7550988878063</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879676</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746021</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232844</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
@@ -6385,13 +6385,13 @@
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225736</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M28" t="n">
-        <v>848.050822590411</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6427,7 +6427,7 @@
         <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218597</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.125737939026</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.7612945678969</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755022</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838401</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1100.286794884789</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1739.339056658943</v>
       </c>
       <c r="N29" t="n">
-        <v>2516.334910202705</v>
+        <v>2360.201702025978</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>2893.29266464788</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508975</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379497</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377511</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174142</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164852</v>
+        <v>3060.131976164849</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420328</v>
+        <v>2784.073622420325</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.56169864057</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>872.7308420875812</v>
+        <v>872.7308420875811</v>
       </c>
       <c r="C30" t="n">
-        <v>722.0766116476734</v>
+        <v>722.0766116476733</v>
       </c>
       <c r="D30" t="n">
-        <v>591.9876442691537</v>
+        <v>591.9876442691536</v>
       </c>
       <c r="E30" t="n">
-        <v>455.5411533800415</v>
+        <v>455.5411533800414</v>
       </c>
       <c r="F30" t="n">
-        <v>331.1093472631733</v>
+        <v>331.1093472631732</v>
       </c>
       <c r="G30" t="n">
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755022</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>506.218987229504</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>989.7850731278172</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985372</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517151</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414155</v>
+        <v>368.3732297414184</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878062</v>
+        <v>307.7550988878093</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879675</v>
+        <v>245.3698453879708</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746048</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232839</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755022</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
         <v>568.7078825225742</v>
@@ -6634,37 +6634,37 @@
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648018</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117756</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573178</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.29817721028</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286446</v>
+        <v>861.9084564286463</v>
       </c>
       <c r="X31" t="n">
-        <v>722.768815498816</v>
+        <v>722.768815498818</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026477</v>
+        <v>594.5974356026497</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.356053399307</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108103</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835465</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.555135602345</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111731</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1660.674197054609</v>
+        <v>1690.805456896583</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.758573419142</v>
+        <v>2330.268861109028</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038541</v>
+        <v>2770.308462001357</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897133</v>
+        <v>3118.495954132879</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038081</v>
+        <v>3303.341514273827</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.75678011725</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939826</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380769</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696893</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281937</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.47960313175</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946332</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748459</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348362</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.299623917968</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904334</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.555135602345</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842988</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929695</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918665</v>
+        <v>309.3853606404842</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245244</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123129</v>
+        <v>226.0316571652525</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.624833259751</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407221</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431915</v>
+        <v>86.73045008374157</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.555135602345</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.555135602345</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067515</v>
+        <v>149.3901767122869</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076215</v>
+        <v>389.5437325908912</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729558</v>
+        <v>687.4874315041384</v>
       </c>
       <c r="N34" t="n">
-        <v>1094.837393831235</v>
+        <v>982.3291861103307</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.815253600014</v>
+        <v>1256.686073727022</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376592</v>
+        <v>1376.5622395036</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873651</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387754</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451829</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501588</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250148</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395517</v>
+        <v>835.7257283273645</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.3144371400676</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045763</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027452</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -7014,19 +7014,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7102,13 +7102,13 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
         <v>1089.200323498045</v>
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,13 +7193,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7415,13 +7415,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,13 +7430,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7500,13 +7500,13 @@
         <v>1493.196009291336</v>
       </c>
       <c r="N42" t="n">
-        <v>1493.196009291336</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P43" t="n">
-        <v>965.7235964838006</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7597,22 +7597,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="44">
@@ -7725,13 +7725,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
         <v>1223.947919817482</v>
@@ -7804,28 +7804,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072222</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7982,22 +7982,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>197.0376953363553</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920141</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>307.9140773275449</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8058,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>178.1711413166366</v>
       </c>
       <c r="M3" t="n">
-        <v>265.5945316656599</v>
+        <v>611.1777065035418</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083966</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431189</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,16 +8216,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>422.8464321404377</v>
+        <v>383.9766129858177</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8304,10 +8304,10 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>258.5795224705147</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>574.7607069788144</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8453,10 +8453,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L8" t="n">
-        <v>603.2495781888792</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8529,28 +8529,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>667.5244230630204</v>
       </c>
       <c r="O9" t="n">
-        <v>325.939387961783</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8772,13 +8772,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>577.006990218999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9006,25 +9006,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9243,7 +9243,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9252,16 +9252,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>335.1420048916687</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,19 +9477,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9726,7 +9726,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,13 +10671,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>335.1420048916687</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>505.666843611017</v>
@@ -10902,25 +10902,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11148,16 +11148,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>335.1420048916687</v>
       </c>
       <c r="O42" t="n">
-        <v>579.1898666384017</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,7 +11382,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>454.5321323046928</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>249.6119301315476</v>
       </c>
       <c r="C11" t="n">
-        <v>283.6646094418572</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>68.68425360000396</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>122.5096641109444</v>
       </c>
     </row>
     <row r="14">
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372782</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362793</v>
       </c>
       <c r="T14" t="n">
-        <v>95.2578907729372</v>
+        <v>147.4921179251043</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993867</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>8.300484608166556</v>
       </c>
       <c r="W16" t="n">
-        <v>175.8997592772478</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-2.893907348756509e-12</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>948597.0276503832</v>
+        <v>948296.253843503</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>948597.0276503832</v>
+        <v>948296.253843503</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841571.2147990394</v>
+        <v>841571.2147990393</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>841571.2147990396</v>
+        <v>841571.2147990393</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>950631.6190776118</v>
+        <v>950631.6190776119</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>324597.9205680421</v>
       </c>
       <c r="C2" t="n">
-        <v>324597.9205680421</v>
+        <v>324597.9205680422</v>
       </c>
       <c r="D2" t="n">
-        <v>324597.9205680421</v>
+        <v>324597.920568042</v>
       </c>
       <c r="E2" t="n">
-        <v>286846.2421639213</v>
+        <v>286846.2421639212</v>
       </c>
       <c r="F2" t="n">
         <v>286846.2421639212</v>
       </c>
       <c r="G2" t="n">
+        <v>324597.920568043</v>
+      </c>
+      <c r="H2" t="n">
         <v>324597.9205680429</v>
       </c>
-      <c r="H2" t="n">
-        <v>324597.920568043</v>
-      </c>
       <c r="I2" t="n">
+        <v>324597.9205680429</v>
+      </c>
+      <c r="J2" t="n">
+        <v>324597.9205680425</v>
+      </c>
+      <c r="K2" t="n">
+        <v>324597.9205680425</v>
+      </c>
+      <c r="L2" t="n">
         <v>324597.9205680428</v>
-      </c>
-      <c r="J2" t="n">
-        <v>324597.9205680426</v>
-      </c>
-      <c r="K2" t="n">
-        <v>324597.9205680426</v>
-      </c>
-      <c r="L2" t="n">
-        <v>324597.9205680418</v>
       </c>
       <c r="M2" t="n">
         <v>324597.9205680429</v>
       </c>
       <c r="N2" t="n">
-        <v>324597.9205680428</v>
+        <v>324597.9205680429</v>
       </c>
       <c r="O2" t="n">
         <v>324597.9205680429</v>
       </c>
       <c r="P2" t="n">
-        <v>324597.9205680428</v>
+        <v>324597.9205680429</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340549</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401367</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668188</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728548</v>
+        <v>62456.24177539691</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.5244708112</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277127</v>
+        <v>27767.69404277121</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892386</v>
+        <v>184487.2052585817</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892386</v>
+        <v>184487.2052585817</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589427</v>
+        <v>86988.78851589425</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.78851589431</v>
+        <v>86988.78851589425</v>
       </c>
       <c r="G4" t="n">
         <v>134747.7050074764</v>
@@ -26442,10 +26442,10 @@
         <v>135498.1974718596</v>
       </c>
       <c r="K4" t="n">
-        <v>135498.1974718596</v>
+        <v>135498.1974718597</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623214</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26454,7 +26454,7 @@
         <v>134747.7050074764</v>
       </c>
       <c r="O4" t="n">
-        <v>134747.7050074765</v>
+        <v>134747.7050074764</v>
       </c>
       <c r="P4" t="n">
         <v>134747.7050074764</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26494,19 +26494,19 @@
         <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391949</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315418</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102367.1336530661</v>
+        <v>-98918.00925941166</v>
       </c>
       <c r="C6" t="n">
-        <v>79837.81463878977</v>
+        <v>74940.64777464329</v>
       </c>
       <c r="D6" t="n">
-        <v>74398.27266296555</v>
+        <v>66661.98343957361</v>
       </c>
       <c r="E6" t="n">
-        <v>34548.87247414194</v>
+        <v>34339.14092745237</v>
       </c>
       <c r="F6" t="n">
-        <v>146671.4339481863</v>
+        <v>146461.7024014968</v>
       </c>
       <c r="G6" t="n">
         <v>84255.12070836494</v>
       </c>
       <c r="H6" t="n">
-        <v>131680.4462450469</v>
+        <v>131680.4462450468</v>
       </c>
       <c r="I6" t="n">
-        <v>131680.4462450467</v>
+        <v>131680.4462450468</v>
       </c>
       <c r="J6" t="n">
-        <v>-81361.47135223915</v>
+        <v>-74845.18619766583</v>
       </c>
       <c r="K6" t="n">
-        <v>125440.6778422635</v>
+        <v>125440.6778422633</v>
       </c>
       <c r="L6" t="n">
-        <v>70258.08890764162</v>
+        <v>66209.25169717023</v>
       </c>
       <c r="M6" t="n">
-        <v>89479.61678542383</v>
+        <v>88427.92177423561</v>
       </c>
       <c r="N6" t="n">
-        <v>131680.4462450467</v>
+        <v>131680.4462450468</v>
       </c>
       <c r="O6" t="n">
-        <v>103912.7522022755</v>
+        <v>103912.7522022756</v>
       </c>
       <c r="P6" t="n">
-        <v>131680.4462450467</v>
+        <v>131680.4462450468</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26710,10 +26710,10 @@
         <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,22 +26811,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443777</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293126</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085236</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346408</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660685</v>
+        <v>78.07030221924614</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551345</v>
+        <v>17.58004954287411</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346408</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.6215418150651</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773713</v>
+        <v>659.362224997164</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407279</v>
+        <v>117.1268713042805</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085236</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346408</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.6215418150651</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>202.0125583440282</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>279.1692006816136</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27439,7 +27439,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27509,7 +27509,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938626999</v>
+        <v>124.570436475858</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>117.6956750166488</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27619,19 +27619,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>172.3618911359888</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>10.0634272213473</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626999</v>
+        <v>124.570436475858</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27783,7 +27783,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27831,13 +27831,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>224.894283403073</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>20.1295907564909</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,13 +27859,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>167.9422552558237</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>107.757854846628</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28029,10 +28029,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>262.6880108334724</v>
+        <v>240.3576544903973</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28743,31 +28743,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668871</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>28.01250026485209</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,10 +28980,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668865</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>35.71049010668751</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29086,7 +29086,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155852</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
         <v>130.3599693155844</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29235,10 +29235,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>5.636002634529405</v>
+        <v>35.71049010668756</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29296,16 +29296,16 @@
         <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
+        <v>30.27223765901215</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>93.99127447431648</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
       <c r="M26" t="n">
-        <v>30.27223765901272</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>93.99127447431648</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765900999</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="P29" t="n">
-        <v>30.27223765901277</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743166</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>48.65992738833165</v>
+        <v>81.10808140892811</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
     </row>
     <row r="33">
@@ -29904,46 +29904,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>94.97643844045254</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>76.79385455030763</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -29952,28 +29952,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
     </row>
     <row r="35">
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.7104901066881</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30414,19 +30414,19 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>128.2979821082773</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30487,7 +30487,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30657,13 +30657,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>5.636002634528936</v>
+        <v>28.01250026485198</v>
       </c>
       <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="R43" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,10 +30876,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30891,16 +30891,16 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34702,22 +34702,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>43.7895256058636</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344371</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>157.6126300866196</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>88.11079445971841</v>
       </c>
       <c r="M3" t="n">
-        <v>173.207409616348</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,16 +34936,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>279.7880289612004</v>
+        <v>240.9182098065804</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35024,10 +35024,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>173.207409616348</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>482.0731480899255</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L8" t="n">
-        <v>450.0014084583875</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>582.1523102088538</v>
       </c>
       <c r="O9" t="n">
-        <v>233.2518290728942</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>484.6198681696871</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257292</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326902</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488448</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35972,16 +35972,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>249.769892037502</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.63600263452964</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>213.0525346398109</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634529582</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36297,7 +36297,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>39.16725411683999</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36531,10 +36531,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724876</v>
+        <v>156.7975262446457</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>176.3831193851011</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101042</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>528.575562627221</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>645.5073351254081</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192277</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201029</v>
       </c>
       <c r="P29" t="n">
-        <v>381.9767751656005</v>
+        <v>445.6958119809043</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853757</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698332</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215753</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611266</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963366</v>
       </c>
       <c r="M31" t="n">
-        <v>282.1645859271084</v>
+        <v>282.1645859271085</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492754</v>
       </c>
       <c r="O31" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113954</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122748</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446908</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,22 +37075,22 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>600.1759880394231</v>
+        <v>632.6241420600196</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>645.9226305176214</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458572</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537699</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>177.6380961272625</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>242.5793493723276</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>300.9532312255022</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476691</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371498</v>
+        <v>277.1281693097891</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,13 +37391,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>249.769892037502</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37470,7 +37470,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37479,7 +37479,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
         <v>362.6084404317796</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.63600263452903</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37710,7 +37710,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184298</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.3033249682118</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37868,16 +37868,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>249.769892037502</v>
       </c>
       <c r="O42" t="n">
-        <v>486.5023077495127</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>126.7230387724871</v>
+        <v>149.0995364028101</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P44" t="n">
         <v>351.7045375065877</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,7 +38102,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38187,16 +38187,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
